--- a/Misc/10GenerationsFlappyBIrd.xlsx
+++ b/Misc/10GenerationsFlappyBIrd.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swaroopakkineni/Desktop/Fall-Semester-2016/Senior Design/FlappyBIrdProject/NEATFlappyBird/Misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swaroopakkineni/Desktop/Fall-Semester-2016/Senior Design/NEATFlappyBird-master/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="4920" yWindow="460" windowWidth="23880" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -137,8 +137,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -150,13 +152,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2035,11 +2039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1766468272"/>
-        <c:axId val="1766472432"/>
+        <c:axId val="2005217888"/>
+        <c:axId val="2025573536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1766468272"/>
+        <c:axId val="2005217888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766472432"/>
+        <c:crossAx val="2025573536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2089,7 +2093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1766472432"/>
+        <c:axId val="2025573536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766468272"/>
+        <c:crossAx val="2005217888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2787,11 +2791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1829001744"/>
-        <c:axId val="1827854688"/>
+        <c:axId val="2024462096"/>
+        <c:axId val="2024142528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1829001744"/>
+        <c:axId val="2024462096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +2837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1827854688"/>
+        <c:crossAx val="2024142528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2841,7 +2845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1827854688"/>
+        <c:axId val="2024142528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +2895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1829001744"/>
+        <c:crossAx val="2024462096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4256,16 +4260,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4553,7 +4557,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:O40"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4725,15 +4729,15 @@
         <v>132</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M40" si="0">AVERAGE(B5:L5)</f>
+        <f t="shared" ref="M5:M35" si="0">AVERAGE(B5:L5)</f>
         <v>139.09090909090909</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N40" si="1">STDEV(B5:L5)</f>
+        <f t="shared" ref="N5:N35" si="1">STDEV(B5:L5)</f>
         <v>44.842958299948371</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O40" si="2">MEDIAN(B5:L5)</f>
+        <f t="shared" ref="O5:O35" si="2">MEDIAN(B5:L5)</f>
         <v>131</v>
       </c>
     </row>
